--- a/INDIVIDUALES/productor 3.xlsx
+++ b/INDIVIDUALES/productor 3.xlsx
@@ -12,6 +12,9 @@
     <sheet name="Porcentajes" sheetId="3" r:id="rId3"/>
     <sheet name="Intervalo " sheetId="5" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2220,7 +2223,196 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>8107</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3609975" y="3810000"/>
+          <a:ext cx="7620000" cy="4580107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="cantidad inicial pollos"/>
+      <sheetName val="cantidad pollos muertos"/>
+      <sheetName val="Estadisticas Descriptivas"/>
+      <sheetName val="porcentaje de mortalidad"/>
+      <sheetName val="regiones de credibilidad bin"/>
+      <sheetName val="Intervalos finales productores"/>
+      <sheetName val="Hoja5"/>
+      <sheetName val="Hoja6"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
+        <row r="53">
+          <cell r="B53" t="str">
+            <v>Inferior</v>
+          </cell>
+          <cell r="C53">
+            <v>0.15825815671253951</v>
+          </cell>
+          <cell r="D53">
+            <v>3.035257197776315E-2</v>
+          </cell>
+          <cell r="E53">
+            <v>1.4839491438012621E-2</v>
+          </cell>
+          <cell r="F53">
+            <v>2.7329145080968537E-2</v>
+          </cell>
+          <cell r="G53">
+            <v>1.8219455975166967E-2</v>
+          </cell>
+          <cell r="H53">
+            <v>1.1754046717507276E-2</v>
+          </cell>
+          <cell r="I53">
+            <v>1.7632257346440233E-2</v>
+          </cell>
+          <cell r="J53">
+            <v>2.4717031834518777E-2</v>
+          </cell>
+          <cell r="K53">
+            <v>2.3518054059735408E-2</v>
+          </cell>
+          <cell r="L53">
+            <v>4.3639862698024029E-2</v>
+          </cell>
+          <cell r="M53">
+            <v>3.270544271250217E-2</v>
+          </cell>
+          <cell r="N53">
+            <v>5.0131485534768455E-2</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54" t="str">
+            <v>Superior</v>
+          </cell>
+          <cell r="C54">
+            <v>0.18957637490145762</v>
+          </cell>
+          <cell r="D54">
+            <v>4.6116550492398267E-2</v>
+          </cell>
+          <cell r="E54">
+            <v>2.4984823555715407E-2</v>
+          </cell>
+          <cell r="F54">
+            <v>4.0456834097858607E-2</v>
+          </cell>
+          <cell r="G54">
+            <v>2.9297588457250057E-2</v>
+          </cell>
+          <cell r="H54">
+            <v>2.1339404543395446E-2</v>
+          </cell>
+          <cell r="I54">
+            <v>2.9016299420743907E-2</v>
+          </cell>
+          <cell r="J54">
+            <v>3.7611024454305642E-2</v>
+          </cell>
+          <cell r="K54">
+            <v>3.5887680905831498E-2</v>
+          </cell>
+          <cell r="L54">
+            <v>5.9823666840950529E-2</v>
+          </cell>
+          <cell r="M54">
+            <v>4.6980898371675739E-2</v>
+          </cell>
+          <cell r="N54">
+            <v>6.7318606749461773E-2</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55" t="str">
+            <v>Centro</v>
+          </cell>
+          <cell r="C55">
+            <v>0.17391726580699857</v>
+          </cell>
+          <cell r="D55">
+            <v>3.8234561235080705E-2</v>
+          </cell>
+          <cell r="E55">
+            <v>1.9912157496864015E-2</v>
+          </cell>
+          <cell r="F55">
+            <v>3.3892989589413572E-2</v>
+          </cell>
+          <cell r="G55">
+            <v>2.3758522216208514E-2</v>
+          </cell>
+          <cell r="H55">
+            <v>1.6546725630451363E-2</v>
+          </cell>
+          <cell r="I55">
+            <v>2.3324278383592072E-2</v>
+          </cell>
+          <cell r="J55">
+            <v>3.1164028144412208E-2</v>
+          </cell>
+          <cell r="K55">
+            <v>2.9702867482783453E-2</v>
+          </cell>
+          <cell r="L55">
+            <v>5.1731764769487279E-2</v>
+          </cell>
+          <cell r="M55">
+            <v>3.9843170542088954E-2</v>
+          </cell>
+          <cell r="N55">
+            <v>5.8725046142115114E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2846,8 +3038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
